--- a/Data/EMS/EMS modbus Beckhoff.xlsx
+++ b/Data/EMS/EMS modbus Beckhoff.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Trond\Desktop\Nexus Config Tool V1.0\Data\EMS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\NexusConfigTool\Data\EMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{082086E7-0B5D-4C1D-A58D-EDC9E3D8017D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F3BE65C-C123-4C7C-A6CD-F3DE1890AEA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{4DE97B6A-7D20-4800-87F4-DBAAAC9C54F4}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{4DE97B6A-7D20-4800-87F4-DBAAAC9C54F4}"/>
   </bookViews>
   <sheets>
     <sheet name="EMS modbus" sheetId="2" r:id="rId1"/>
@@ -570,10 +570,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0&quot; ms&quot;"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -736,7 +737,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -751,12 +752,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -770,6 +765,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1674,11 +1678,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{152ED43E-67D2-4075-9F7C-80E096D660C2}">
   <dimension ref="A1:Y163"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G125" sqref="G125"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21" bestFit="1" customWidth="1"/>
@@ -1702,45 +1706,45 @@
     <col min="25" max="25" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:25" ht="21" thickTop="1" thickBot="1">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="13"/>
-      <c r="F1" s="14" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="11"/>
+      <c r="F1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
-      <c r="W1" s="14"/>
-    </row>
-    <row r="2" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="12" t="s">
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
+    </row>
+    <row r="2" spans="1:25" ht="15.75" thickTop="1">
+      <c r="A2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="12"/>
+      <c r="D2" s="10"/>
       <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1802,15 +1806,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:25">
+      <c r="A3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="12" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="12"/>
+      <c r="D3" s="10"/>
       <c r="F3" s="2">
         <v>1</v>
       </c>
@@ -1861,7 +1865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25">
       <c r="F4" s="2">
         <v>1</v>
       </c>
@@ -1912,13 +1916,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:25">
+      <c r="A5" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
       <c r="F5" s="2">
         <v>1</v>
       </c>
@@ -1969,12 +1973,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:25">
+      <c r="A6" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
       <c r="D6" s="3" t="s">
         <v>39</v>
       </c>
@@ -2028,12 +2032,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="1:25">
+      <c r="A7" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
       <c r="D7" s="5">
         <v>2000</v>
       </c>
@@ -2087,12 +2091,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:25">
+      <c r="A8" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
       <c r="D8" s="5">
         <v>100</v>
       </c>
@@ -2146,13 +2150,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+    <row r="9" spans="1:25">
+      <c r="A9" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
       <c r="F9" s="2">
         <v>1</v>
       </c>
@@ -2201,7 +2205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25">
       <c r="A10" s="1" t="s">
         <v>49</v>
       </c>
@@ -2258,7 +2262,7 @@
       <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -2321,7 +2325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25">
       <c r="A12" s="7"/>
       <c r="F12" s="2">
         <v>1</v>
@@ -2373,7 +2377,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25">
       <c r="A13" s="7"/>
       <c r="F13" s="2">
         <v>1</v>
@@ -2425,7 +2429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25">
       <c r="A14" s="6"/>
       <c r="F14" s="2">
         <v>1</v>
@@ -2475,7 +2479,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25">
       <c r="F15" s="2">
         <v>1</v>
       </c>
@@ -2524,7 +2528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25">
       <c r="F16" s="2">
         <v>1</v>
       </c>
@@ -2573,7 +2577,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="6:25">
       <c r="F17" s="2">
         <v>1</v>
       </c>
@@ -2622,11 +2626,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="6:25">
       <c r="F18" s="2">
         <v>1</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="15">
         <v>12288</v>
       </c>
       <c r="H18" s="3" t="s">
@@ -2665,7 +2669,7 @@
       <c r="X18" s="2"/>
       <c r="Y18" s="2"/>
     </row>
-    <row r="19" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="6:25">
       <c r="F19" s="2">
         <v>1</v>
       </c>
@@ -2708,7 +2712,7 @@
       <c r="X19" s="2"/>
       <c r="Y19" s="2"/>
     </row>
-    <row r="20" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="6:25">
       <c r="F20" s="2">
         <v>1</v>
       </c>
@@ -2751,7 +2755,7 @@
       <c r="X20" s="2"/>
       <c r="Y20" s="2"/>
     </row>
-    <row r="21" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="6:25">
       <c r="F21" s="2">
         <v>1</v>
       </c>
@@ -2794,7 +2798,7 @@
       <c r="X21" s="2"/>
       <c r="Y21" s="2"/>
     </row>
-    <row r="22" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="6:25">
       <c r="F22" s="2">
         <v>1</v>
       </c>
@@ -2847,7 +2851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="6:25">
       <c r="F23" s="2">
         <v>1</v>
       </c>
@@ -2900,7 +2904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="6:25">
       <c r="F24" s="2">
         <v>1</v>
       </c>
@@ -2953,7 +2957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="6:25">
       <c r="F25" s="2">
         <v>1</v>
       </c>
@@ -3006,7 +3010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="6:25">
       <c r="F26" s="2">
         <v>1</v>
       </c>
@@ -3059,7 +3063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="6:25">
       <c r="F27" s="2">
         <v>1</v>
       </c>
@@ -3112,7 +3116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="6:25">
       <c r="F28" s="2">
         <v>1</v>
       </c>
@@ -3165,7 +3169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="6:25">
       <c r="F29" s="2">
         <v>1</v>
       </c>
@@ -3218,7 +3222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="6:25">
       <c r="F30" s="2">
         <v>1</v>
       </c>
@@ -3271,7 +3275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="6:25">
       <c r="F31" s="2">
         <v>1</v>
       </c>
@@ -3324,7 +3328,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="6:25">
       <c r="F32" s="2">
         <v>1</v>
       </c>
@@ -3377,7 +3381,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="6:25">
       <c r="F33" s="2">
         <v>1</v>
       </c>
@@ -3430,7 +3434,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="6:25">
       <c r="F34" s="2">
         <v>1</v>
       </c>
@@ -3483,7 +3487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="6:25">
       <c r="F35" s="2">
         <v>1</v>
       </c>
@@ -3536,7 +3540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="6:25">
       <c r="F36" s="2">
         <v>1</v>
       </c>
@@ -3589,7 +3593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="6:25">
       <c r="F37" s="2">
         <v>1</v>
       </c>
@@ -3642,7 +3646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="6:25">
       <c r="F38" s="2">
         <v>1</v>
       </c>
@@ -3695,7 +3699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="39" spans="6:25">
       <c r="F39" s="2">
         <v>1</v>
       </c>
@@ -3748,7 +3752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="40" spans="6:25">
       <c r="F40" s="2">
         <v>1</v>
       </c>
@@ -3801,7 +3805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="41" spans="6:25">
       <c r="F41" s="2">
         <v>1</v>
       </c>
@@ -3854,7 +3858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="6:25">
       <c r="F42" s="2">
         <v>1</v>
       </c>
@@ -3907,7 +3911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="6:25">
       <c r="F43" s="2">
         <v>1</v>
       </c>
@@ -3960,7 +3964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="6:25">
       <c r="F44" s="2">
         <v>1</v>
       </c>
@@ -4013,7 +4017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="6:25">
       <c r="F45" s="2">
         <v>1</v>
       </c>
@@ -4066,7 +4070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="46" spans="6:25">
       <c r="F46" s="2">
         <v>1</v>
       </c>
@@ -4117,7 +4121,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="47" spans="6:25">
       <c r="F47" s="2">
         <v>1</v>
       </c>
@@ -4168,7 +4172,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="48" spans="6:25">
       <c r="F48" s="2">
         <v>1</v>
       </c>
@@ -4219,7 +4223,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="49" spans="6:25">
       <c r="F49" s="2">
         <v>1</v>
       </c>
@@ -4270,7 +4274,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="50" spans="6:25">
       <c r="F50" s="2">
         <v>1</v>
       </c>
@@ -4321,7 +4325,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="51" spans="6:25">
       <c r="F51" s="2">
         <v>1</v>
       </c>
@@ -4372,7 +4376,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="52" spans="6:25">
       <c r="F52" s="2">
         <v>1</v>
       </c>
@@ -4415,7 +4419,7 @@
       <c r="X52" s="2"/>
       <c r="Y52" s="2"/>
     </row>
-    <row r="53" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="53" spans="6:25">
       <c r="F53" s="2">
         <v>1</v>
       </c>
@@ -4458,7 +4462,7 @@
       <c r="X53" s="2"/>
       <c r="Y53" s="2"/>
     </row>
-    <row r="54" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="54" spans="6:25">
       <c r="F54" s="2">
         <v>1</v>
       </c>
@@ -4501,7 +4505,7 @@
       <c r="X54" s="2"/>
       <c r="Y54" s="2"/>
     </row>
-    <row r="55" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="55" spans="6:25">
       <c r="F55" s="2">
         <v>1</v>
       </c>
@@ -4544,7 +4548,7 @@
       <c r="X55" s="2"/>
       <c r="Y55" s="2"/>
     </row>
-    <row r="56" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="56" spans="6:25">
       <c r="F56" s="2">
         <v>1</v>
       </c>
@@ -4587,7 +4591,7 @@
       <c r="X56" s="2"/>
       <c r="Y56" s="2"/>
     </row>
-    <row r="57" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="57" spans="6:25">
       <c r="F57" s="2">
         <v>1</v>
       </c>
@@ -4638,7 +4642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="58" spans="6:25">
       <c r="F58" s="2">
         <v>1</v>
       </c>
@@ -4689,7 +4693,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="59" spans="6:25">
       <c r="F59" s="2">
         <v>1</v>
       </c>
@@ -4740,7 +4744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="60" spans="6:25">
       <c r="F60" s="2">
         <v>1</v>
       </c>
@@ -4789,7 +4793,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="61" spans="6:25">
       <c r="F61" s="2">
         <v>1</v>
       </c>
@@ -4838,7 +4842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="62" spans="6:25">
       <c r="F62" s="2">
         <v>1</v>
       </c>
@@ -4887,7 +4891,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="63" spans="6:25">
       <c r="F63" s="2">
         <v>1</v>
       </c>
@@ -4936,7 +4940,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="64" spans="6:25">
       <c r="F64" s="2">
         <v>1</v>
       </c>
@@ -4979,7 +4983,7 @@
       <c r="X64" s="2"/>
       <c r="Y64" s="2"/>
     </row>
-    <row r="65" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="65" spans="6:25">
       <c r="F65" s="2">
         <v>1</v>
       </c>
@@ -5022,7 +5026,7 @@
       <c r="X65" s="2"/>
       <c r="Y65" s="2"/>
     </row>
-    <row r="66" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="66" spans="6:25">
       <c r="F66" s="2">
         <v>1</v>
       </c>
@@ -5065,7 +5069,7 @@
       <c r="X66" s="2"/>
       <c r="Y66" s="2"/>
     </row>
-    <row r="67" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="67" spans="6:25">
       <c r="F67" s="2">
         <v>1</v>
       </c>
@@ -5108,7 +5112,7 @@
       <c r="X67" s="2"/>
       <c r="Y67" s="2"/>
     </row>
-    <row r="68" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="68" spans="6:25">
       <c r="F68" s="2">
         <v>1</v>
       </c>
@@ -5161,7 +5165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="69" spans="6:25">
       <c r="F69" s="2">
         <v>1</v>
       </c>
@@ -5214,7 +5218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="70" spans="6:25">
       <c r="F70" s="2">
         <v>1</v>
       </c>
@@ -5267,7 +5271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="71" spans="6:25">
       <c r="F71" s="2">
         <v>1</v>
       </c>
@@ -5320,7 +5324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="72" spans="6:25">
       <c r="F72" s="2">
         <v>1</v>
       </c>
@@ -5373,7 +5377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="73" spans="6:25">
       <c r="F73" s="2">
         <v>1</v>
       </c>
@@ -5426,7 +5430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="74" spans="6:25">
       <c r="F74" s="2">
         <v>1</v>
       </c>
@@ -5479,7 +5483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="75" spans="6:25">
       <c r="F75" s="2">
         <v>1</v>
       </c>
@@ -5532,7 +5536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="76" spans="6:25">
       <c r="F76" s="2">
         <v>1</v>
       </c>
@@ -5585,7 +5589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="77" spans="6:25">
       <c r="F77" s="2">
         <v>1</v>
       </c>
@@ -5638,7 +5642,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="78" spans="6:25">
       <c r="F78" s="2">
         <v>1</v>
       </c>
@@ -5691,7 +5695,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="79" spans="6:25">
       <c r="F79" s="2">
         <v>1</v>
       </c>
@@ -5744,7 +5748,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="80" spans="6:25">
       <c r="F80" s="2">
         <v>1</v>
       </c>
@@ -5797,7 +5801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="81" spans="6:25">
       <c r="F81" s="2">
         <v>1</v>
       </c>
@@ -5850,7 +5854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="82" spans="6:25">
       <c r="F82" s="2">
         <v>1</v>
       </c>
@@ -5903,7 +5907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="83" spans="6:25">
       <c r="F83" s="2">
         <v>1</v>
       </c>
@@ -5956,7 +5960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="84" spans="6:25">
       <c r="F84" s="2">
         <v>1</v>
       </c>
@@ -6009,7 +6013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="85" spans="6:25">
       <c r="F85" s="2">
         <v>1</v>
       </c>
@@ -6062,7 +6066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="86" spans="6:25">
       <c r="F86" s="2">
         <v>1</v>
       </c>
@@ -6115,7 +6119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="87" spans="6:25">
       <c r="F87" s="2">
         <v>1</v>
       </c>
@@ -6168,7 +6172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="88" spans="6:25">
       <c r="F88" s="2">
         <v>1</v>
       </c>
@@ -6221,7 +6225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="89" spans="6:25">
       <c r="F89" s="2">
         <v>1</v>
       </c>
@@ -6274,7 +6278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="90" spans="6:25">
       <c r="F90" s="2">
         <v>1</v>
       </c>
@@ -6327,7 +6331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="91" spans="6:25">
       <c r="F91" s="2">
         <v>1</v>
       </c>
@@ -6380,7 +6384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="92" spans="6:25">
       <c r="F92" s="2">
         <v>1</v>
       </c>
@@ -6431,7 +6435,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="93" spans="6:25">
       <c r="F93" s="2">
         <v>1</v>
       </c>
@@ -6482,7 +6486,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="94" spans="6:25">
       <c r="F94" s="2">
         <v>1</v>
       </c>
@@ -6533,7 +6537,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="95" spans="6:25">
       <c r="F95" s="2">
         <v>1</v>
       </c>
@@ -6584,7 +6588,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="96" spans="6:25">
       <c r="F96" s="2">
         <v>1</v>
       </c>
@@ -6635,7 +6639,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="97" spans="6:25">
       <c r="F97" s="2">
         <v>1</v>
       </c>
@@ -6686,7 +6690,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="98" spans="6:25">
       <c r="F98" s="2">
         <v>1</v>
       </c>
@@ -6729,7 +6733,7 @@
       <c r="X98" s="2"/>
       <c r="Y98" s="2"/>
     </row>
-    <row r="99" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="99" spans="6:25">
       <c r="F99" s="2">
         <v>1</v>
       </c>
@@ -6772,7 +6776,7 @@
       <c r="X99" s="2"/>
       <c r="Y99" s="2"/>
     </row>
-    <row r="100" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="100" spans="6:25">
       <c r="F100" s="2">
         <v>1</v>
       </c>
@@ -6815,7 +6819,7 @@
       <c r="X100" s="2"/>
       <c r="Y100" s="2"/>
     </row>
-    <row r="101" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="101" spans="6:25">
       <c r="F101" s="2">
         <v>1</v>
       </c>
@@ -6858,7 +6862,7 @@
       <c r="X101" s="2"/>
       <c r="Y101" s="2"/>
     </row>
-    <row r="102" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="102" spans="6:25">
       <c r="F102" s="2">
         <v>1</v>
       </c>
@@ -6901,7 +6905,7 @@
       <c r="X102" s="2"/>
       <c r="Y102" s="2"/>
     </row>
-    <row r="103" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="103" spans="6:25">
       <c r="F103" s="2">
         <v>1</v>
       </c>
@@ -6952,7 +6956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="104" spans="6:25">
       <c r="F104" s="2">
         <v>1</v>
       </c>
@@ -7003,7 +7007,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="105" spans="6:25">
       <c r="F105" s="2">
         <v>1</v>
       </c>
@@ -7054,7 +7058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="106" spans="6:25">
       <c r="F106" s="2">
         <v>1</v>
       </c>
@@ -7103,7 +7107,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="107" spans="6:25">
       <c r="F107" s="2">
         <v>1</v>
       </c>
@@ -7152,7 +7156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="108" spans="6:25">
       <c r="F108" s="2">
         <v>1</v>
       </c>
@@ -7201,7 +7205,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="109" spans="6:25">
       <c r="F109" s="2">
         <v>1</v>
       </c>
@@ -7250,7 +7254,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="110" spans="6:25">
       <c r="F110" s="2">
         <v>1</v>
       </c>
@@ -7293,7 +7297,7 @@
       <c r="X110" s="2"/>
       <c r="Y110" s="2"/>
     </row>
-    <row r="111" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="111" spans="6:25">
       <c r="F111" s="2">
         <v>1</v>
       </c>
@@ -7336,7 +7340,7 @@
       <c r="X111" s="2"/>
       <c r="Y111" s="2"/>
     </row>
-    <row r="112" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="112" spans="6:25">
       <c r="F112" s="2">
         <v>1</v>
       </c>
@@ -7379,7 +7383,7 @@
       <c r="X112" s="2"/>
       <c r="Y112" s="2"/>
     </row>
-    <row r="113" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="113" spans="6:25">
       <c r="F113" s="2">
         <v>1</v>
       </c>
@@ -7422,7 +7426,7 @@
       <c r="X113" s="2"/>
       <c r="Y113" s="2"/>
     </row>
-    <row r="114" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="114" spans="6:25">
       <c r="F114" s="2">
         <v>1</v>
       </c>
@@ -7475,7 +7479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="115" spans="6:25">
       <c r="F115" s="2">
         <v>1</v>
       </c>
@@ -7528,7 +7532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="116" spans="6:25">
       <c r="F116" s="2">
         <v>1</v>
       </c>
@@ -7581,7 +7585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="117" spans="6:25">
       <c r="F117" s="2">
         <v>1</v>
       </c>
@@ -7634,7 +7638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="118" spans="6:25">
       <c r="F118" s="2">
         <v>1</v>
       </c>
@@ -7687,7 +7691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="119" spans="6:25">
       <c r="F119" s="2">
         <v>1</v>
       </c>
@@ -7740,7 +7744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="120" spans="6:25">
       <c r="F120" s="2">
         <v>1</v>
       </c>
@@ -7793,7 +7797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="121" spans="6:25">
       <c r="F121" s="2">
         <v>1</v>
       </c>
@@ -7846,7 +7850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="122" spans="6:25">
       <c r="F122" s="2">
         <v>1</v>
       </c>
@@ -7899,7 +7903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="123" spans="6:25">
       <c r="F123" s="2">
         <v>1</v>
       </c>
@@ -7952,7 +7956,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="124" spans="6:25">
       <c r="F124" s="2">
         <v>1</v>
       </c>
@@ -8005,7 +8009,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="125" spans="6:25">
       <c r="F125" s="2">
         <v>1</v>
       </c>
@@ -8058,7 +8062,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="126" spans="6:25">
       <c r="F126" s="2">
         <v>1</v>
       </c>
@@ -8111,7 +8115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="127" spans="6:25">
       <c r="F127" s="2">
         <v>1</v>
       </c>
@@ -8164,7 +8168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="128" spans="6:25">
       <c r="F128" s="2">
         <v>1</v>
       </c>
@@ -8217,7 +8221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="129" spans="6:25">
       <c r="F129" s="2">
         <v>1</v>
       </c>
@@ -8270,7 +8274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="130" spans="6:25">
       <c r="F130" s="2">
         <v>1</v>
       </c>
@@ -8323,7 +8327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="131" spans="6:25">
       <c r="F131" s="2">
         <v>1</v>
       </c>
@@ -8376,7 +8380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="132" spans="6:25">
       <c r="F132" s="2">
         <v>1</v>
       </c>
@@ -8429,7 +8433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="133" spans="6:25">
       <c r="F133" s="2">
         <v>1</v>
       </c>
@@ -8482,7 +8486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="134" spans="6:25">
       <c r="F134" s="2">
         <v>1</v>
       </c>
@@ -8535,7 +8539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="135" spans="6:25">
       <c r="F135" s="2">
         <v>1</v>
       </c>
@@ -8588,7 +8592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="136" spans="6:25">
       <c r="F136" s="2">
         <v>1</v>
       </c>
@@ -8641,7 +8645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="137" spans="6:25">
       <c r="F137" s="2">
         <v>1</v>
       </c>
@@ -8694,7 +8698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="138" spans="6:25">
       <c r="F138" s="2">
         <v>1</v>
       </c>
@@ -8745,7 +8749,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="139" spans="6:25">
       <c r="F139" s="2">
         <v>1</v>
       </c>
@@ -8796,7 +8800,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="140" spans="6:25">
       <c r="F140" s="2">
         <v>1</v>
       </c>
@@ -8847,7 +8851,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="141" spans="6:25">
       <c r="F141" s="2">
         <v>1</v>
       </c>
@@ -8898,7 +8902,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="142" spans="6:25">
       <c r="F142" s="2">
         <v>1</v>
       </c>
@@ -8949,7 +8953,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="143" spans="6:25">
       <c r="F143" s="2">
         <v>1</v>
       </c>
@@ -9000,7 +9004,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="144" spans="6:25">
       <c r="F144" s="2">
         <v>1</v>
       </c>
@@ -9043,7 +9047,7 @@
       <c r="X144" s="2"/>
       <c r="Y144" s="2"/>
     </row>
-    <row r="145" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="145" spans="6:25">
       <c r="F145" s="2">
         <v>1</v>
       </c>
@@ -9086,7 +9090,7 @@
       <c r="X145" s="2"/>
       <c r="Y145" s="2"/>
     </row>
-    <row r="146" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="146" spans="6:25">
       <c r="F146" s="2">
         <v>1</v>
       </c>
@@ -9129,7 +9133,7 @@
       <c r="X146" s="2"/>
       <c r="Y146" s="2"/>
     </row>
-    <row r="147" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="147" spans="6:25">
       <c r="F147" s="2">
         <v>1</v>
       </c>
@@ -9172,7 +9176,7 @@
       <c r="X147" s="2"/>
       <c r="Y147" s="2"/>
     </row>
-    <row r="148" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="148" spans="6:25">
       <c r="F148" s="2">
         <v>1</v>
       </c>
@@ -9215,7 +9219,7 @@
       <c r="X148" s="2"/>
       <c r="Y148" s="2"/>
     </row>
-    <row r="149" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="149" spans="6:25">
       <c r="F149" s="2">
         <v>1</v>
       </c>
@@ -9260,7 +9264,7 @@
       <c r="X149" s="2"/>
       <c r="Y149" s="2"/>
     </row>
-    <row r="150" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="150" spans="6:25">
       <c r="F150" s="2">
         <v>1</v>
       </c>
@@ -9305,7 +9309,7 @@
       <c r="X150" s="2"/>
       <c r="Y150" s="2"/>
     </row>
-    <row r="151" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="151" spans="6:25">
       <c r="F151" s="2">
         <v>1</v>
       </c>
@@ -9350,7 +9354,7 @@
       <c r="X151" s="2"/>
       <c r="Y151" s="2"/>
     </row>
-    <row r="152" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="152" spans="6:25">
       <c r="F152" s="2">
         <v>1</v>
       </c>
@@ -9395,7 +9399,7 @@
       <c r="X152" s="2"/>
       <c r="Y152" s="2"/>
     </row>
-    <row r="153" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="153" spans="6:25">
       <c r="F153" s="2">
         <v>1</v>
       </c>
@@ -9440,7 +9444,7 @@
       <c r="X153" s="2"/>
       <c r="Y153" s="2"/>
     </row>
-    <row r="154" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="154" spans="6:25">
       <c r="F154" s="2">
         <v>1</v>
       </c>
@@ -9485,7 +9489,7 @@
       <c r="X154" s="2"/>
       <c r="Y154" s="2"/>
     </row>
-    <row r="155" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="155" spans="6:25">
       <c r="F155" s="2">
         <v>1</v>
       </c>
@@ -9530,7 +9534,7 @@
       <c r="X155" s="2"/>
       <c r="Y155" s="2"/>
     </row>
-    <row r="156" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="156" spans="6:25">
       <c r="F156" s="2">
         <v>1</v>
       </c>
@@ -9575,7 +9579,7 @@
       <c r="X156" s="2"/>
       <c r="Y156" s="2"/>
     </row>
-    <row r="157" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="157" spans="6:25">
       <c r="F157" s="2">
         <v>1</v>
       </c>
@@ -9620,7 +9624,7 @@
       <c r="X157" s="2"/>
       <c r="Y157" s="2"/>
     </row>
-    <row r="158" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="158" spans="6:25">
       <c r="F158" s="2">
         <v>1</v>
       </c>
@@ -9665,7 +9669,7 @@
       <c r="X158" s="2"/>
       <c r="Y158" s="2"/>
     </row>
-    <row r="159" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="159" spans="6:25">
       <c r="F159" s="2">
         <v>1</v>
       </c>
@@ -9710,7 +9714,7 @@
       <c r="X159" s="2"/>
       <c r="Y159" s="2"/>
     </row>
-    <row r="160" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="160" spans="6:25">
       <c r="F160" s="2">
         <v>1</v>
       </c>
@@ -9755,7 +9759,7 @@
       <c r="X160" s="2"/>
       <c r="Y160" s="2"/>
     </row>
-    <row r="161" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="161" spans="6:25">
       <c r="F161" s="2">
         <v>1</v>
       </c>
@@ -9800,7 +9804,7 @@
       <c r="X161" s="2"/>
       <c r="Y161" s="2"/>
     </row>
-    <row r="162" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="162" spans="6:25">
       <c r="F162" s="2">
         <v>1</v>
       </c>
@@ -9845,13 +9849,18 @@
       <c r="X162" s="2"/>
       <c r="Y162" s="2"/>
     </row>
-    <row r="163" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="163" spans="6:25">
       <c r="F163" s="6"/>
       <c r="G163" s="6"/>
       <c r="V163" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:D9"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="A1:B1"/>
@@ -9859,11 +9868,6 @@
     <mergeCell ref="F1:W1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:D9"/>
   </mergeCells>
   <conditionalFormatting sqref="A14">
     <cfRule type="duplicateValues" dxfId="55" priority="5"/>
